--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_6.xlsx
@@ -518,221 +518,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_1</t>
+          <t>model_18_6_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9708949739249932</v>
+        <v>0.9870994430647146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7855541360603617</v>
+        <v>0.7944314826969991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9049841161134631</v>
+        <v>0.9699747168651933</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9927621541234494</v>
+        <v>0.7538856338921229</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9642490932211429</v>
+        <v>0.9681656499924673</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1946254433798921</v>
+        <v>0.08626608362785626</v>
       </c>
       <c r="H2" t="n">
-        <v>1.43400047959677</v>
+        <v>1.374637621761153</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2283002554012027</v>
+        <v>0.1152934170511022</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02938461125037376</v>
+        <v>0.09634664986407721</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1288424333257882</v>
+        <v>0.1058201778114227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7447095813704675</v>
+        <v>1.27280817620188</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4411637376075827</v>
+        <v>0.2937108844218346</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01317963444906</v>
+        <v>1.005841761631073</v>
       </c>
       <c r="O2" t="n">
-        <v>0.459944991252371</v>
+        <v>0.3062147648370202</v>
       </c>
       <c r="P2" t="n">
-        <v>157.273356741413</v>
+        <v>158.9006375272212</v>
       </c>
       <c r="Q2" t="n">
-        <v>251.1267952562645</v>
+        <v>252.7540760420727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_2</t>
+          <t>model_18_6_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9738496832980191</v>
+        <v>0.9866026675208309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7848314193650183</v>
+        <v>0.7944015414731896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8939955940040688</v>
+        <v>0.9628762370512761</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9852068357826224</v>
+        <v>0.6117392673012669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.956330395781896</v>
+        <v>0.9556955835922863</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1748672881972825</v>
+        <v>0.08958802397724712</v>
       </c>
       <c r="H3" t="n">
-        <v>1.438833289466336</v>
+        <v>1.374837838862633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2547030240904066</v>
+        <v>0.1425507118429722</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0600581149563995</v>
+        <v>0.1519928375611295</v>
       </c>
       <c r="K3" t="n">
-        <v>0.157380569523403</v>
+        <v>0.1472717747020509</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6834173296034558</v>
+        <v>1.237847715536562</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4181713622395518</v>
+        <v>0.2993125857314509</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01184165284618</v>
+        <v>1.006066716594341</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4359737828641446</v>
+        <v>0.3120549421685072</v>
       </c>
       <c r="P3" t="n">
-        <v>157.4874558918245</v>
+        <v>158.8250672578058</v>
       </c>
       <c r="Q3" t="n">
-        <v>251.3408944066759</v>
+        <v>252.6785057726572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_3</t>
+          <t>model_18_6_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9758021376703909</v>
+        <v>0.9857111491437364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7833919199647651</v>
+        <v>0.7939536855950475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8830528195192958</v>
+        <v>0.9558255833532572</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9756298555815043</v>
+        <v>0.4571758043183012</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9472882294171988</v>
+        <v>0.9425219292917641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1618112168190065</v>
+        <v>0.09554961146994306</v>
       </c>
       <c r="H4" t="n">
-        <v>1.448459228584114</v>
+        <v>1.377832653181957</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2809958722699247</v>
+        <v>0.1696243601958917</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09893927448400407</v>
+        <v>0.2124999590481854</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1899675672230859</v>
+        <v>0.1910621596220385</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6291479747272565</v>
+        <v>1.20543338020237</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4022576497955092</v>
+        <v>0.3091110018584636</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010957522564351</v>
+        <v>1.006470423029251</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4193825907354329</v>
+        <v>0.3222704971555644</v>
       </c>
       <c r="P4" t="n">
-        <v>157.6426499031009</v>
+        <v>158.6962193491055</v>
       </c>
       <c r="Q4" t="n">
-        <v>251.4960884179523</v>
+        <v>252.549657863957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_4</t>
+          <t>model_18_6_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9769542277074936</v>
+        <v>0.9870179585709751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7814355859720877</v>
+        <v>0.7938678878981489</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8722396436975537</v>
+        <v>0.9767839692096156</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9645186389487738</v>
+        <v>0.8744756503666904</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9374250884102273</v>
+        <v>0.9791994264916031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.154107185436014</v>
+        <v>0.08681097081269402</v>
       </c>
       <c r="H5" t="n">
-        <v>1.461541243001238</v>
+        <v>1.37840638277618</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3069773261155763</v>
+        <v>0.08914672038792928</v>
       </c>
       <c r="J5" t="n">
-        <v>0.144049212833102</v>
+        <v>0.04913914922884064</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2255132694743391</v>
+        <v>0.06914293480838496</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5810263120552043</v>
+        <v>1.310529403130769</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3925648805433491</v>
+        <v>0.2946370153471794</v>
       </c>
       <c r="N5" t="n">
-        <v>1.010435821415474</v>
+        <v>1.005878660269747</v>
       </c>
       <c r="O5" t="n">
-        <v>0.40927718022941</v>
+        <v>0.3071803230732123</v>
       </c>
       <c r="P5" t="n">
-        <v>157.7402138186918</v>
+        <v>158.8880445469026</v>
       </c>
       <c r="Q5" t="n">
-        <v>251.5936523335432</v>
+        <v>252.741483061754</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9774789968471069</v>
+        <v>0.9845618280213392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.779125948540333</v>
+        <v>0.7932206085332035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8616284068234203</v>
+        <v>0.9490333791691746</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9523550833372754</v>
+        <v>0.296972313591511</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9270365273730052</v>
+        <v>0.9291654439276994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1505980517830806</v>
+        <v>0.1032351271075507</v>
       </c>
       <c r="H6" t="n">
-        <v>1.476985799142284</v>
+        <v>1.382734742870017</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3324735693687588</v>
+        <v>0.195705594007268</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1934314957888861</v>
+        <v>0.2752149881306059</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2629525291571382</v>
+        <v>0.2354602910689369</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5382932964135262</v>
+        <v>1.175408620469927</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3880696481085329</v>
+        <v>0.3213022363874095</v>
       </c>
       <c r="N6" t="n">
-        <v>1.010198190106971</v>
+        <v>1.00699087032996</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4045905764434297</v>
+        <v>0.334980737777742</v>
       </c>
       <c r="P6" t="n">
-        <v>157.7862818001347</v>
+        <v>158.5414922098026</v>
       </c>
       <c r="Q6" t="n">
-        <v>251.6397203149861</v>
+        <v>252.394930724654</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9563009518073643</v>
+        <v>0.9861156654142645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7786041009365896</v>
+        <v>0.7924827632527139</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9295598984930791</v>
+        <v>0.9827972718985789</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999999999996937</v>
+        <v>0.9614306350944024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.976518366497516</v>
+        <v>0.9877928719017776</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2922157364797699</v>
+        <v>0.09284460930629544</v>
       </c>
       <c r="H7" t="n">
-        <v>1.480475396471403</v>
+        <v>1.387668717658116</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1692505769216482</v>
+        <v>0.06605637310759131</v>
       </c>
       <c r="J7" t="n">
-        <v>1.243551342061482e-12</v>
+        <v>0.01509878986263903</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08462528846159552</v>
+        <v>0.04057756686142655</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8587939169093478</v>
+        <v>1.351382848475675</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5405698257207573</v>
+        <v>0.3047041340485807</v>
       </c>
       <c r="N7" t="n">
-        <v>1.019788248238175</v>
+        <v>1.006287245850144</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5635830023354937</v>
+        <v>0.3176760198595409</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4605258518975</v>
+        <v>158.7536561019188</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.313964366749</v>
+        <v>252.6070946167702</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9775221124041398</v>
+        <v>0.9832556094191397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7765929283931569</v>
+        <v>0.7923013897047524</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8512717110649424</v>
+        <v>0.9426210261298023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9395769520930559</v>
+        <v>0.1360522123794478</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9163866495424815</v>
+        <v>0.9159861768149302</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1503097378546726</v>
+        <v>0.1119698169150424</v>
       </c>
       <c r="H8" t="n">
-        <v>1.493924116529936</v>
+        <v>1.388881563408483</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3573582117049452</v>
+        <v>0.2203282458546448</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2453088672502121</v>
+        <v>0.3382105494737204</v>
       </c>
       <c r="K8" t="n">
-        <v>0.301333546533697</v>
+        <v>0.2792693334702258</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5007849381216712</v>
+        <v>1.147651180121075</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3876979982598216</v>
+        <v>0.3346189129667395</v>
       </c>
       <c r="N8" t="n">
-        <v>1.010178666081144</v>
+        <v>1.00758236554605</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4042031046912374</v>
+        <v>0.3488643328483749</v>
       </c>
       <c r="P8" t="n">
-        <v>157.7901143897394</v>
+        <v>158.3790518716729</v>
       </c>
       <c r="Q8" t="n">
-        <v>251.6435529045908</v>
+        <v>252.2324903865244</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9772034961084628</v>
+        <v>0.9818664504453998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7739375954340505</v>
+        <v>0.7912697047039322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8412093227523967</v>
+        <v>0.936651218291079</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9265541674848625</v>
+        <v>-0.02206487532963042</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9056970802614444</v>
+        <v>0.9032275305499069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1524403264909581</v>
+        <v>0.1212591293689298</v>
       </c>
       <c r="H9" t="n">
-        <v>1.511680340254165</v>
+        <v>1.395780445759441</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3815357042223384</v>
+        <v>0.2432515782267209</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2981794961135446</v>
+        <v>0.4001088121714645</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3398576076405311</v>
+        <v>0.3216801951990927</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4677770811290254</v>
+        <v>1.122048525190221</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3904360722204828</v>
+        <v>0.3482228156926679</v>
       </c>
       <c r="N9" t="n">
-        <v>1.010322945158432</v>
+        <v>1.008211418666234</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4070577441289985</v>
+        <v>0.363047381877307</v>
       </c>
       <c r="P9" t="n">
-        <v>157.7619641224236</v>
+        <v>158.2196509164692</v>
       </c>
       <c r="Q9" t="n">
-        <v>251.615402637275</v>
+        <v>252.0730894313207</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9766201241556862</v>
+        <v>0.9804479742373186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7712369752837835</v>
+        <v>0.7901795619195149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8314688877553404</v>
+        <v>0.9311472529487037</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9135814269732416</v>
+        <v>-0.1749262262054685</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8951430260811535</v>
+        <v>0.8910474903209551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.156341337425356</v>
+        <v>0.1307444863038512</v>
       </c>
       <c r="H10" t="n">
-        <v>1.529739399634212</v>
+        <v>1.403070235578485</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4049396205633393</v>
+        <v>0.264386132355793</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3508469531563883</v>
+        <v>0.459949606040965</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3778932868598638</v>
+        <v>0.3621677196019148</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4384645540893256</v>
+        <v>1.098475374067675</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3954002243617927</v>
+        <v>0.361586070395212</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010587113589878</v>
+        <v>1.008853747515176</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4122332305041755</v>
+        <v>0.3769795379982891</v>
       </c>
       <c r="P10" t="n">
-        <v>157.7114272032634</v>
+        <v>158.069020693373</v>
       </c>
       <c r="Q10" t="n">
-        <v>251.5648657181148</v>
+        <v>251.9224592082244</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9758493313951307</v>
+        <v>0.9790383298703035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7685489529635962</v>
+        <v>0.7890704186473914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8220741373721855</v>
+        <v>0.9261077013524323</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9008821254159551</v>
+        <v>-0.3209030669908726</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8848582240121255</v>
+        <v>0.8795410329449319</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1614956321643647</v>
+        <v>0.1401707846768969</v>
       </c>
       <c r="H11" t="n">
-        <v>1.54771421726651</v>
+        <v>1.41048708174631</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4275129401407909</v>
+        <v>0.2837373944681533</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4024042874485036</v>
+        <v>0.5170953135014176</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4149586103506608</v>
+        <v>0.4004161953905587</v>
       </c>
       <c r="L11" t="n">
-        <v>0.412401690387299</v>
+        <v>1.076820487349495</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4018651915311461</v>
+        <v>0.3743938897430043</v>
       </c>
       <c r="N11" t="n">
-        <v>1.010936151821073</v>
+        <v>1.009492077039863</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4189734247102552</v>
+        <v>0.390332612731558</v>
       </c>
       <c r="P11" t="n">
-        <v>157.6465543642141</v>
+        <v>157.929787418571</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.4999928790655</v>
+        <v>251.7832259334224</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9749521494502018</v>
+        <v>0.9776644401484117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.765916243278153</v>
+        <v>0.7879705141725586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8130448113882017</v>
+        <v>0.9215173458803825</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8886180124579899</v>
+        <v>-0.4589647815624927</v>
       </c>
       <c r="F12" t="n">
-        <v>0.874940358775577</v>
+        <v>0.8687600476307989</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1674950919612476</v>
+        <v>0.1493579915733672</v>
       </c>
       <c r="H12" t="n">
-        <v>1.565319159055582</v>
+        <v>1.417842148034111</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4492082330110421</v>
+        <v>0.3013637983716796</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4521948187401454</v>
+        <v>0.5711424781745906</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4507015328554929</v>
+        <v>0.4362531382731351</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3891988706158505</v>
+        <v>1.056960161115144</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4092616424260251</v>
+        <v>0.3864686165439145</v>
       </c>
       <c r="N12" t="n">
-        <v>1.011342422890475</v>
+        <v>1.010114215781851</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4266847578324934</v>
+        <v>0.4029213856505132</v>
       </c>
       <c r="P12" t="n">
-        <v>157.5736024597404</v>
+        <v>157.8028184534467</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.4270409745919</v>
+        <v>251.6562569682981</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9739764396049226</v>
+        <v>0.9763443164494825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7633697011214134</v>
+        <v>0.7868996148769442</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8043999111130038</v>
+        <v>0.9173511446817211</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8769020917868543</v>
+        <v>-0.5885495710444604</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8654594255362825</v>
+        <v>0.8587232496963961</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1740196681893597</v>
+        <v>0.1581856648267179</v>
       </c>
       <c r="H13" t="n">
-        <v>1.582347898183447</v>
+        <v>1.425003256554923</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4699798436093545</v>
+        <v>0.3173615017125435</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4997597683444063</v>
+        <v>0.6218711720634181</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4848697993083163</v>
+        <v>0.4696163368879808</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3685255490869049</v>
+        <v>1.038783530915039</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4171566470636177</v>
+        <v>0.3977256149994841</v>
       </c>
       <c r="N13" t="n">
-        <v>1.011784253763809</v>
+        <v>1.010712007645517</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4349158691624209</v>
+        <v>0.4146576178355357</v>
       </c>
       <c r="P13" t="n">
-        <v>157.4971739011692</v>
+        <v>157.6879716839951</v>
       </c>
       <c r="Q13" t="n">
-        <v>251.3506124160207</v>
+        <v>251.5414101988465</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9729592798286755</v>
+        <v>0.975089877201912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7609309301497742</v>
+        <v>0.7858713089519326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7961571525522022</v>
+        <v>0.9135803900962789</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8658063266919132</v>
+        <v>-0.7094134534836249</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8564618517435719</v>
+        <v>0.8494284855558627</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1808214202967151</v>
+        <v>0.1665741058513835</v>
       </c>
       <c r="H14" t="n">
-        <v>1.598655970900307</v>
+        <v>1.431879543010389</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4897852046465538</v>
+        <v>0.3318407383966686</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5448069756767203</v>
+        <v>0.6691858832959798</v>
       </c>
       <c r="K14" t="n">
-        <v>0.517296090161637</v>
+        <v>0.5005129499438072</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3500837843671427</v>
+        <v>1.022168399405051</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4252310199135466</v>
+        <v>0.4081349113361702</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012244854417204</v>
+        <v>1.011280055606681</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4433339847808273</v>
+        <v>0.4255100594674885</v>
       </c>
       <c r="P14" t="n">
-        <v>157.4204907258984</v>
+        <v>157.5846299767839</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.2739292407499</v>
+        <v>251.4380684916353</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9719291005420548</v>
+        <v>0.9739079723894174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7586143296446972</v>
+        <v>0.7848942567171843</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7883307617368391</v>
+        <v>0.9101738957912224</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8553719021877235</v>
+        <v>-0.8215743756695939</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8479755850823333</v>
+        <v>0.8408564720965886</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1877102339298862</v>
+        <v>0.1744775087747056</v>
       </c>
       <c r="H15" t="n">
-        <v>1.614147089144721</v>
+        <v>1.438413095803063</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5085901344007269</v>
+        <v>0.3449212601300269</v>
       </c>
       <c r="J15" t="n">
-        <v>0.587169235512945</v>
+        <v>0.7130936375208873</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5478796849568359</v>
+        <v>0.5290070762020049</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3336207743210327</v>
+        <v>1.007015543023973</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4332553911146245</v>
+        <v>0.4177050499751058</v>
       </c>
       <c r="N15" t="n">
-        <v>1.012711350697937</v>
+        <v>1.011815257785924</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4516999700766733</v>
+        <v>0.4354876187212016</v>
       </c>
       <c r="P15" t="n">
-        <v>157.3457116281485</v>
+        <v>157.4919188703797</v>
       </c>
       <c r="Q15" t="n">
-        <v>251.1991501429999</v>
+        <v>251.3453573852312</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9709073442668683</v>
+        <v>0.9728021217015062</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7564287058890962</v>
+        <v>0.7839736782436966</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7809301856146521</v>
+        <v>0.907101242219433</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8456170760152737</v>
+        <v>-0.9252181176185361</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8400140567510679</v>
+        <v>0.8329785972260347</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1945427228468137</v>
+        <v>0.1818723374167423</v>
       </c>
       <c r="H16" t="n">
-        <v>1.628762365262297</v>
+        <v>1.444569008294149</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5263719341346422</v>
+        <v>0.3567198742551746</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6267724240556959</v>
+        <v>0.7536671622365496</v>
       </c>
       <c r="K16" t="n">
-        <v>0.576572179095169</v>
+        <v>0.5551938247733091</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3189128066064268</v>
+        <v>0.993197445856693</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4410699750003549</v>
+        <v>0.4264649310514785</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013174032784814</v>
+        <v>1.012316020361582</v>
       </c>
       <c r="O16" t="n">
-        <v>0.459847236976838</v>
+        <v>0.4446204260704492</v>
       </c>
       <c r="P16" t="n">
-        <v>157.2742069706096</v>
+        <v>157.4089005615932</v>
       </c>
       <c r="Q16" t="n">
-        <v>251.127645485461</v>
+        <v>251.2623390764446</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9699100066761543</v>
+        <v>0.9717732340428498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7543785583602021</v>
+        <v>0.7831121970467791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7739623154075829</v>
+        <v>0.9043328571348076</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8365426218492427</v>
+        <v>-1.020652039700699</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8325799990099794</v>
+        <v>0.8257602216949378</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2012119239082353</v>
+        <v>0.1887525139277702</v>
       </c>
       <c r="H17" t="n">
-        <v>1.642471711228073</v>
+        <v>1.450329737024692</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5431140459038276</v>
+        <v>0.3673501345823373</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6636134002972672</v>
+        <v>0.7910267801305149</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6033637258039281</v>
+        <v>0.579188339567221</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3057569678874457</v>
+        <v>0.9806246282796769</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4485665211629545</v>
+        <v>0.4344565731206863</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013625657354194</v>
+        <v>1.012781931754181</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4676629266295694</v>
+        <v>0.4529522888875228</v>
       </c>
       <c r="P17" t="n">
-        <v>157.2067931571103</v>
+        <v>157.3346371442381</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.0602316719618</v>
+        <v>251.1880756590896</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9689485863464992</v>
+        <v>0.9708203353762572</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7524647989274186</v>
+        <v>0.7823103611957598</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7674289514584043</v>
+        <v>0.9018400579021536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.828136329147137</v>
+        <v>-1.108261331669931</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8256671359257642</v>
+        <v>0.8191615419914057</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2076409460795729</v>
+        <v>0.1951245516989693</v>
       </c>
       <c r="H18" t="n">
-        <v>1.655269029367148</v>
+        <v>1.455691617052573</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5588121439187619</v>
+        <v>0.3769221789245895</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6977417372805835</v>
+        <v>0.8253232818410225</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6282769428735728</v>
+        <v>0.6011229309561817</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2939883452174954</v>
+        <v>0.9691982349635541</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4556763611156199</v>
+        <v>0.4417290478324572</v>
       </c>
       <c r="N18" t="n">
-        <v>1.014061017503472</v>
+        <v>1.013213433037166</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4750754471884175</v>
+        <v>0.4605343679038718</v>
       </c>
       <c r="P18" t="n">
-        <v>157.143889823376</v>
+        <v>157.2682343953121</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.9973283382275</v>
+        <v>251.1216729101636</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9680308073549263</v>
+        <v>0.9699411920153151</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7506858984606907</v>
+        <v>0.7815674977042704</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7613258512618134</v>
+        <v>0.8995967212717404</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8203748518800702</v>
+        <v>-1.188487704940969</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8192609047987178</v>
+        <v>0.8131418641606065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2137781384222047</v>
+        <v>0.201003387401672</v>
       </c>
       <c r="H19" t="n">
-        <v>1.667164544979241</v>
+        <v>1.460659148640735</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5734764218965861</v>
+        <v>0.3855363173676808</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7292522165186497</v>
+        <v>0.8567295846003723</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6513643127118171</v>
+        <v>0.62113286922324</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2834578732083631</v>
+        <v>0.9588203235227887</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4623614802534968</v>
+        <v>0.4483340132107667</v>
       </c>
       <c r="N19" t="n">
-        <v>1.014476615537392</v>
+        <v>1.013611535691178</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4820451656880981</v>
+        <v>0.4674205203324992</v>
       </c>
       <c r="P19" t="n">
-        <v>157.085633076176</v>
+        <v>157.2088670366409</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.9390715910274</v>
+        <v>251.0623055514923</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9671619546349098</v>
+        <v>0.9691326994529047</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7490385246283349</v>
+        <v>0.7808818849964576</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7556448459300047</v>
+        <v>0.8975787607625749</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8132322716479663</v>
+        <v>-1.261794419185732</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8133439776714151</v>
+        <v>0.8076597074286744</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2195881605616536</v>
+        <v>0.2064097808892764</v>
       </c>
       <c r="H20" t="n">
-        <v>1.678180541381664</v>
+        <v>1.465243843974835</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5871265077047263</v>
+        <v>0.393285039054377</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7582500629808071</v>
+        <v>0.8854270411597766</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6726882834185934</v>
+        <v>0.6393560401070767</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2740212709286314</v>
+        <v>0.9493996810593448</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4686023480112467</v>
+        <v>0.454323432027533</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014870058278531</v>
+        <v>1.01397764553076</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4885517201066727</v>
+        <v>0.4736649211081014</v>
       </c>
       <c r="P20" t="n">
-        <v>157.0320029689076</v>
+        <v>157.1557837169361</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.8854414837591</v>
+        <v>251.0092222317876</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9663450190577771</v>
+        <v>0.9683913650975836</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7475178355445109</v>
+        <v>0.7802511245365048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7503757027179757</v>
+        <v>0.8957645854430591</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8066763254257506</v>
+        <v>-1.328644596569764</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8078947753675545</v>
+        <v>0.8026754268034557</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2250510125275826</v>
+        <v>0.2113670871368392</v>
       </c>
       <c r="H21" t="n">
-        <v>1.688349396287324</v>
+        <v>1.469461742074924</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5997869881617437</v>
+        <v>0.4002512505228136</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7848662598996026</v>
+        <v>0.9115969504406823</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6923266240306731</v>
+        <v>0.6559242270465893</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2655599698824713</v>
+        <v>0.9408616215229495</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4743954179032325</v>
+        <v>0.4597467641396067</v>
       </c>
       <c r="N21" t="n">
-        <v>1.015239991370063</v>
+        <v>1.014313344106755</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4945914129772682</v>
+        <v>0.4793191356960312</v>
       </c>
       <c r="P21" t="n">
-        <v>156.9828563602611</v>
+        <v>157.108317815307</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.8362948751125</v>
+        <v>250.9617563301585</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9655811063787001</v>
+        <v>0.9677129931342788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7461180145943913</v>
+        <v>0.7796724555023594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.745502717467443</v>
+        <v>0.8941328509086492</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8006717025028981</v>
+        <v>-1.389519686901075</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8028881735061928</v>
+        <v>0.7981484726309747</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2301593001300651</v>
+        <v>0.2159033635790741</v>
       </c>
       <c r="H22" t="n">
-        <v>1.697710005426357</v>
+        <v>1.47333130457078</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6114955965728532</v>
+        <v>0.4065169116773732</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8092441636713243</v>
+        <v>0.9354277861060176</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7103698801220888</v>
+        <v>0.6709722206560947</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2579707718199606</v>
+        <v>0.9331274881385585</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4797492054501655</v>
+        <v>0.4646540256783257</v>
       </c>
       <c r="N22" t="n">
-        <v>1.015585914092664</v>
+        <v>1.014620531410893</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5001731223439422</v>
+        <v>0.4844353095178852</v>
       </c>
       <c r="P22" t="n">
-        <v>156.9379672010818</v>
+        <v>157.0658487244895</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.7914057159332</v>
+        <v>250.9192872393409</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9648703242799983</v>
+        <v>0.9670935843564469</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7448327095518321</v>
+        <v>0.7791427736188439</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7410088723685195</v>
+        <v>0.8926660155995136</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7951839117625421</v>
+        <v>-1.444872043542795</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7982990711036366</v>
+        <v>0.7940418728879823</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2349123032969345</v>
+        <v>0.2200453529285517</v>
       </c>
       <c r="H23" t="n">
-        <v>1.706304846164236</v>
+        <v>1.476873289764809</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6222932226312793</v>
+        <v>0.4121493799635894</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8315238032601148</v>
+        <v>0.9570966314028166</v>
       </c>
       <c r="K23" t="n">
-        <v>0.726908512945697</v>
+        <v>0.6846229191908839</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2511615524431237</v>
+        <v>0.9261248528182634</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4846775250586048</v>
+        <v>0.4690899198752322</v>
       </c>
       <c r="N23" t="n">
-        <v>1.015907777684529</v>
+        <v>1.014901018404628</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5053112507211408</v>
+        <v>0.4890600489143209</v>
       </c>
       <c r="P23" t="n">
-        <v>156.8970860238917</v>
+        <v>157.0278432084009</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7505245387432</v>
+        <v>250.8812817232524</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9642115064713915</v>
+        <v>0.9665289419977839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7436550887240265</v>
+        <v>0.7786589247658304</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7368746009364052</v>
+        <v>0.8913473563314057</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7901758832126757</v>
+        <v>-1.495145947931063</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7941000655171957</v>
+        <v>0.7903198832256451</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2393178210166651</v>
+        <v>0.2238211189808698</v>
       </c>
       <c r="H24" t="n">
-        <v>1.714179602062216</v>
+        <v>1.48010878927283</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6322268798814367</v>
+        <v>0.4172128703647847</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8518556774915573</v>
+        <v>0.976777409652362</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7420412786864971</v>
+        <v>0.6969951400085734</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2450466276970595</v>
+        <v>0.9197899745404138</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4892012070883157</v>
+        <v>0.4730973673366506</v>
       </c>
       <c r="N24" t="n">
-        <v>1.016206110277106</v>
+        <v>1.015156705510437</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5100275152601691</v>
+        <v>0.4932381017107318</v>
       </c>
       <c r="P24" t="n">
-        <v>156.8599256307924</v>
+        <v>156.993816244274</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.7133641456438</v>
+        <v>250.8472547591255</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9636031644162513</v>
+        <v>0.9660149985789845</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7425782184290386</v>
+        <v>0.7782176988374633</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7330801313027435</v>
+        <v>0.8901615637414109</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7856140348112195</v>
+        <v>-1.540755176040105</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7902656502603522</v>
+        <v>0.786949269574525</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2433858071405455</v>
+        <v>0.2272578609888727</v>
       </c>
       <c r="H25" t="n">
-        <v>1.721380638683333</v>
+        <v>1.483059269087479</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6413440753548961</v>
+        <v>0.4217661689631883</v>
       </c>
       <c r="J25" t="n">
-        <v>0.870376124617162</v>
+        <v>0.994632102170663</v>
       </c>
       <c r="K25" t="n">
-        <v>0.755860099986029</v>
+        <v>0.7081993560774023</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2395591250348864</v>
+        <v>0.9140611323199613</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4933414711338846</v>
+        <v>0.4767157024777689</v>
       </c>
       <c r="N25" t="n">
-        <v>1.016481585924716</v>
+        <v>1.015389434605743</v>
       </c>
       <c r="O25" t="n">
-        <v>0.514344038917686</v>
+        <v>0.4970104768697938</v>
       </c>
       <c r="P25" t="n">
-        <v>156.8262148219459</v>
+        <v>156.9633399094252</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.6796533367973</v>
+        <v>250.8167784242767</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.963043050443798</v>
+        <v>0.9655478267295541</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7415951696252694</v>
+        <v>0.7778159859123814</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7296047173339211</v>
+        <v>0.889095623841913</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7814633018241262</v>
+        <v>-1.582096671770914</v>
       </c>
       <c r="F26" t="n">
-        <v>0.786769159565076</v>
+        <v>0.7838993146227028</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2471312918534281</v>
+        <v>0.2303818412971432</v>
       </c>
       <c r="H26" t="n">
-        <v>1.727954290560661</v>
+        <v>1.485745525267219</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6496946570076918</v>
+        <v>0.4258592478804608</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8872275024041626</v>
+        <v>1.010816101004309</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7684610774120557</v>
+        <v>0.7183376744423852</v>
       </c>
       <c r="L26" t="n">
-        <v>0.23463220309683</v>
+        <v>0.9088860914931306</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4971230148096425</v>
+        <v>0.4799810843118125</v>
       </c>
       <c r="N26" t="n">
-        <v>1.016735222440544</v>
+        <v>1.015600984122466</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5182865707365956</v>
+        <v>0.5004148727687848</v>
       </c>
       <c r="P26" t="n">
-        <v>156.7956710752188</v>
+        <v>156.9360343341617</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.6491095900702</v>
+        <v>250.7894728490132</v>
       </c>
     </row>
   </sheetData>
